--- a/app/report.xlsx
+++ b/app/report.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>delivery_year</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -505,40 +505,40 @@
         <v>2020</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="L2" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -546,40 +546,40 @@
         <v>2021</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>35</v>
+      </c>
+      <c r="I3" t="n">
+        <v>39</v>
+      </c>
+      <c r="J3" t="n">
         <v>24</v>
       </c>
-      <c r="G3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8</v>
-      </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
